--- a/API仕様書.xlsx
+++ b/API仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\book-management-tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E786E446-E6C8-4551-8058-45D45DAC0CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0374DB1D-9BE0-4AC2-AFDC-1D893248B32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25890" yWindow="4140" windowWidth="26265" windowHeight="21345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22425" yWindow="9270" windowWidth="26265" windowHeight="21345" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="共通" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>GET</t>
     <phoneticPr fontId="2"/>
@@ -75,10 +75,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>https://example.com/v1/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>APIドメイン</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -123,6 +119,17 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://api.example.com/v1/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -495,7 +502,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -506,12 +513,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="6" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -522,10 +529,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -536,25 +543,25 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24">
       <c r="A1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="21">
       <c r="A3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>0</v>
@@ -562,61 +569,66 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="14.25">
+    </row>
+    <row r="18" spans="1:7">
+      <c r="G18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.25">
       <c r="A19" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
@@ -646,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3EAADF1-35BF-4ABF-92C8-BDC95B2BDBF7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
